--- a/doc/优惠券领域模型分析.xlsx
+++ b/doc/优惠券领域模型分析.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
   <si>
     <t>微服务</t>
   </si>
@@ -86,6 +86,123 @@
   </si>
   <si>
     <t>被聚合根券发行引用</t>
+  </si>
+  <si>
+    <t>领域服务</t>
+  </si>
+  <si>
+    <t>方法：创建券发行</t>
+  </si>
+  <si>
+    <t>ddd-learn-coupon.service</t>
+  </si>
+  <si>
+    <t>CouponService</t>
+  </si>
+  <si>
+    <t>CreateCouponIssueDomService</t>
+  </si>
+  <si>
+    <t>方法：启用禁用券发行</t>
+  </si>
+  <si>
+    <t>IsEnableCouponIssueDomService</t>
+  </si>
+  <si>
+    <t>方法：查询券发行</t>
+  </si>
+  <si>
+    <t>GetCouponIssueDomService</t>
+  </si>
+  <si>
+    <t>券发行仓储接口</t>
+  </si>
+  <si>
+    <t>仓储接口</t>
+  </si>
+  <si>
+    <t>ddd-learn-coupon.repository.facade</t>
+  </si>
+  <si>
+    <t>ICouponRepository</t>
+  </si>
+  <si>
+    <t>券发行仓储实现</t>
+  </si>
+  <si>
+    <t>仓储实现</t>
+  </si>
+  <si>
+    <t>ddd-learn-coupon.repository.persistence</t>
+  </si>
+  <si>
+    <t>CouponRepository</t>
+  </si>
+  <si>
+    <t>券包</t>
+  </si>
+  <si>
+    <t>CouponPackage</t>
+  </si>
+  <si>
+    <t>创建券包</t>
+  </si>
+  <si>
+    <t>CreateCouponPackage</t>
+  </si>
+  <si>
+    <t>查询券包</t>
+  </si>
+  <si>
+    <t>GetCouponPackage</t>
+  </si>
+  <si>
+    <t>券包创建事件</t>
+  </si>
+  <si>
+    <t>事件实体</t>
+  </si>
+  <si>
+    <t>ddd-learn-coupon.event</t>
+  </si>
+  <si>
+    <t>CouponPackageEvent</t>
+  </si>
+  <si>
+    <t>券包已创建</t>
+  </si>
+  <si>
+    <t>领域事件</t>
+  </si>
+  <si>
+    <t>CouponPackageEventProcess</t>
+  </si>
+  <si>
+    <t>方法：创建券包</t>
+  </si>
+  <si>
+    <t>CouponPackageService</t>
+  </si>
+  <si>
+    <t>CreateCouponPackageDomService</t>
+  </si>
+  <si>
+    <t>方法：查询券包</t>
+  </si>
+  <si>
+    <t>GetCouponPackageDomService</t>
+  </si>
+  <si>
+    <t>券包仓储接口</t>
+  </si>
+  <si>
+    <t>ICouponPackageRepository</t>
+  </si>
+  <si>
+    <t>券包仓储实现</t>
+  </si>
+  <si>
+    <t>CouponPackageRepository</t>
   </si>
 </sst>
 </file>
@@ -715,12 +832,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1041,19 +1161,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="12.625" customWidth="1"/>
-    <col min="9" max="9" width="19.375" customWidth="1"/>
+    <col min="6" max="6" width="19.125" customWidth="1"/>
+    <col min="7" max="7" width="43.75" customWidth="1"/>
+    <col min="8" max="8" width="27.125" customWidth="1"/>
+    <col min="9" max="9" width="30.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1086,14 +1206,14 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -1108,7 +1228,10 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="4:9">
+    <row r="3" spans="1:9">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
       <c r="D3" t="s">
         <v>15</v>
       </c>
@@ -1125,7 +1248,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="4:9">
+    <row r="4" spans="1:9">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" t="s">
         <v>18</v>
       </c>
@@ -1142,7 +1268,10 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="4:9">
+    <row r="5" spans="1:9">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" t="s">
         <v>20</v>
       </c>
@@ -1159,7 +1288,10 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="4:8">
+    <row r="6" spans="1:8">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
       <c r="D6" t="s">
         <v>11</v>
       </c>
@@ -1176,7 +1308,309 @@
         <v>14</v>
       </c>
     </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
+        <v>55</v>
+      </c>
+      <c r="I19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="B2:B21"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="C12:C21"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
